--- a/Bug Tracker.xlsx
+++ b/Bug Tracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Foxioo\Documents\GitHub\Tails7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Foxioo\Documents\GitHub\Tails7Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{001590E0-A828-42F4-B776-F6D6B8A4673C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82915668-9065-49FE-975A-4D3050CC6C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{6A3C57F1-66AF-4FDC-AC13-513F71BB64AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Version</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>R1.0.1_10.05.25a</t>
-  </si>
-  <si>
     <t>🔴</t>
   </si>
   <si>
@@ -97,6 +94,15 @@
   </si>
   <si>
     <t>Description regarding the repair/bug in question</t>
+  </si>
+  <si>
+    <t>No _RotY support from shader for mapping</t>
+  </si>
+  <si>
+    <t>R1.0.1
+R1.0.1_10.05.25
+R1.0.1_10.05.25a
+R1.0.1_13.05.25</t>
   </si>
 </sst>
 </file>
@@ -225,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -411,6 +417,15 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -422,9 +437,6 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -437,9 +449,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,6 +462,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Dane wyjściowe" xfId="2" builtinId="21"/>
@@ -780,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB868D7-A456-4AFB-8640-B3BE1F5D3A32}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,157 +815,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12">
+      <c r="F2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="A3" s="19"/>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="A4" s="19"/>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="D4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="A5" s="19"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="D6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="A7" s="19"/>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
         <v>6</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="A8" s="19"/>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
         <v>7</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>12</v>
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A2:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
